--- a/Jogos_do_Dia/2023-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="K2" t="n">
-        <v>2.89</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="M2" t="n">
         <v>1.57</v>
@@ -718,10 +718,10 @@
         <v>2.4</v>
       </c>
       <c r="S2" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="T2" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -830,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="K3" t="n">
-        <v>4.7</v>
+        <v>4.33</v>
       </c>
       <c r="L3" t="n">
-        <v>5.85</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -857,10 +857,10 @@
         <v>4.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="T3" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -902,10 +902,10 @@
         <v>3.35</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.26</v>
@@ -951,37 +951,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>Blackburn Rovers</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Swansea City</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.53</v>
+        <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="N4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.02</v>
@@ -990,22 +990,22 @@
         <v>9.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T4" t="n">
         <v>1.95</v>
       </c>
       <c r="U4" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -1017,58 +1017,58 @@
         <v>1.77</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.27</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.78</v>
+        <v>2.42</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AI4" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5">
@@ -1090,124 +1090,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Blackburn Rovers</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Preston North End</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.71</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.84</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.77</v>
+        <v>1.47</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AA5" t="n">
         <v>1.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.26</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.11</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.73</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AF5" t="n">
         <v>8</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.42</v>
+        <v>2.05</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AI5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="AL5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO5" t="n">
         <v>1.66</v>
       </c>
-      <c r="AM5" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1.68</v>
-      </c>
       <c r="AP5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -1229,55 +1229,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Rotherham United</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Preston North End</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.95</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R6" t="n">
         <v>3.3</v>
       </c>
-      <c r="J6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.9</v>
-      </c>
       <c r="S6" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1286,13 +1286,13 @@
         <v>1.85</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="X6" t="n">
         <v>1.28</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="Z6" t="n">
         <v>1.1</v>
@@ -1301,52 +1301,52 @@
         <v>1.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.95</v>
+        <v>1.09</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.95</v>
+        <v>3.49</v>
       </c>
       <c r="AF6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.05</v>
+        <v>1.41</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.88</v>
+        <v>2.65</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
@@ -1368,124 +1368,124 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rotherham United</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Swansea City</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H7" t="n">
         <v>2.15</v>
       </c>
       <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN7" t="n">
         <v>2.25</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AL7" t="n">
+      <c r="AO7" t="n">
         <v>1.6</v>
       </c>
-      <c r="AM7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AP7" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>2.95</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>3.47</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.97</v>
+        <v>1.76</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1579,13 +1579,13 @@
         <v>2.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AE8" t="n">
         <v>1.91</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.47</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="N9" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="R9" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="V9" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="X9" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1.8</v>
       </c>
-      <c r="AA9" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AB9" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I10" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X10" t="n">
         <v>1.28</v>
       </c>
-      <c r="R10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Z10" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>3.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.57</v>
@@ -712,16 +712,16 @@
         <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -739,10 +739,10 @@
         <v>1.44</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
         <v>1.4</v>
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.25</v>
@@ -857,16 +857,16 @@
         <v>4.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.46</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>1.16</v>
@@ -893,13 +893,13 @@
         <v>2.81</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AF3" t="n">
-        <v>10.25</v>
+        <v>9.9</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.35</v>
+        <v>3.44</v>
       </c>
       <c r="AH3" t="n">
         <v>1.17</v>
@@ -914,7 +914,7 @@
         <v>3.34</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="AM3" t="n">
         <v>2.4</v>
@@ -969,13 +969,13 @@
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.32</v>
@@ -1108,13 +1108,13 @@
         <v>3.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="M5" t="n">
         <v>1.42</v>
@@ -1135,10 +1135,10 @@
         <v>2.9</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1247,13 +1247,13 @@
         <v>2.25</v>
       </c>
       <c r="J6" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.4</v>
@@ -1386,10 +1386,10 @@
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L7" t="n">
         <v>3.4</v>
@@ -1413,10 +1413,10 @@
         <v>3.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.65</v>
@@ -1525,13 +1525,13 @@
         <v>2.95</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M8" t="n">
         <v>1.33</v>
@@ -1552,10 +1552,10 @@
         <v>3.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="T8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1630,7 +1630,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.4</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.95</v>
       </c>
       <c r="O9" t="n">
         <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X9" t="n">
         <v>1.28</v>
       </c>
-      <c r="R9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>1.25</v>
       </c>
-      <c r="Y9" t="n">
-        <v>1.45</v>
-      </c>
       <c r="Z9" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.41</v>
+        <v>2.7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="N10" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="O10" t="n">
         <v>1.04</v>
       </c>
       <c r="P10" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="R10" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="T10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.35</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="X10" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Z10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1.8</v>
       </c>
-      <c r="AA10" t="n">
-        <v>1.7</v>
-      </c>
       <c r="AB10" t="n">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AF10" t="n">
         <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.7</v>
+        <v>2.41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
     </row>
   </sheetData>
